--- a/tut08/Scorecard.xlsx
+++ b/tut08/Scorecard.xlsx
@@ -781,7 +781,7 @@
       <c r="E15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>8(b 4, lb 0, w 4, nb 0, p 0)</t>
+          <t>5(b 1, lb 0, w 4, nb 0, p 0)</t>
         </is>
       </c>
     </row>
